--- a/excel/gabi2.xlsx
+++ b/excel/gabi2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\a\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateu\OneDrive\Documentos\Spotify-Data-Analysis\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79854DB6-BC6E-4C1D-B5CF-AC598F8EF49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EF2BDD-11D1-498D-808C-416F984709B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gabi2" sheetId="1" r:id="rId1"/>
@@ -241,13 +241,13 @@
     <t>Gabi Martin</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -730,48 +730,48 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bom" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Célula de Verificação" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Célula Vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Ênfase1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Ênfase2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Ênfase3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Ênfase4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -787,7 +787,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1082,7 +1082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
